--- a/config_3.16/shoping_config_vivo.xlsx
+++ b/config_3.16/shoping_config_vivo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4676" uniqueCount="2166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4718" uniqueCount="2188">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -9163,6 +9163,93 @@
   </si>
   <si>
     <t>"金币周卡",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>春暖花开·桃花礼包</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包498元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5080万金币","抽奖券*50","桃花*800",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_fish_drop_act_0",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50800000,50,800</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,100,0</t>
+  </si>
+  <si>
+    <t>桃花礼包198元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000万金币","抽奖券*30","桃花*300",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,30,300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包98元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"990万金币","抽奖券*15","桃花*150",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,15,150</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包48元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"485万金币","抽奖券*8","桃花*80",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4850000,8,80</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包20元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"200万金币","抽奖券*4","桃花*30",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,30</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃花礼包6元</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"60万金币","抽奖券*1","桃花*20",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,20</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -9542,15 +9629,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12043,13 +12130,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN580"/>
+  <dimension ref="A1:AN586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H554" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J580" sqref="J580"/>
+      <selection pane="bottomRight" activeCell="H560" sqref="H560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -36499,7 +36586,7 @@
       <c r="Q386" s="22" t="s">
         <v>1266</v>
       </c>
-      <c r="R386" s="67" t="s">
+      <c r="R386" s="65" t="s">
         <v>1267</v>
       </c>
       <c r="W386" s="22" t="s">
@@ -36567,7 +36654,7 @@
       <c r="Q387" s="22" t="s">
         <v>1272</v>
       </c>
-      <c r="R387" s="67" t="s">
+      <c r="R387" s="65" t="s">
         <v>1273</v>
       </c>
       <c r="W387" s="22" t="s">
@@ -36635,7 +36722,7 @@
       <c r="Q388" s="22" t="s">
         <v>1278</v>
       </c>
-      <c r="R388" s="67" t="s">
+      <c r="R388" s="65" t="s">
         <v>1279</v>
       </c>
       <c r="W388" s="22" t="s">
@@ -36703,7 +36790,7 @@
       <c r="Q389" s="22" t="s">
         <v>1285</v>
       </c>
-      <c r="R389" s="67" t="s">
+      <c r="R389" s="65" t="s">
         <v>1279</v>
       </c>
       <c r="W389" s="22" t="s">
@@ -36771,7 +36858,7 @@
       <c r="Q390" s="22" t="s">
         <v>1287</v>
       </c>
-      <c r="R390" s="67" t="s">
+      <c r="R390" s="65" t="s">
         <v>1288</v>
       </c>
       <c r="W390" s="22" t="s">
@@ -36839,7 +36926,7 @@
       <c r="Q391" s="22" t="s">
         <v>1291</v>
       </c>
-      <c r="R391" s="67" t="s">
+      <c r="R391" s="65" t="s">
         <v>1292</v>
       </c>
       <c r="W391" s="22" t="s">
@@ -36907,7 +36994,7 @@
       <c r="Q392" s="22" t="s">
         <v>1295</v>
       </c>
-      <c r="R392" s="67" t="s">
+      <c r="R392" s="65" t="s">
         <v>1296</v>
       </c>
       <c r="W392" s="22" t="s">
@@ -36975,7 +37062,7 @@
       <c r="Q393" s="22" t="s">
         <v>1299</v>
       </c>
-      <c r="R393" s="67" t="s">
+      <c r="R393" s="65" t="s">
         <v>1292</v>
       </c>
       <c r="W393" s="22" t="s">
@@ -37043,7 +37130,7 @@
       <c r="Q394" s="22" t="s">
         <v>1303</v>
       </c>
-      <c r="R394" s="67" t="s">
+      <c r="R394" s="65" t="s">
         <v>1304</v>
       </c>
       <c r="W394" s="22" t="s">
@@ -48306,547 +48393,547 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A566" s="5">
         <v>565</v>
       </c>
       <c r="B566" s="5">
         <v>10482</v>
       </c>
-      <c r="F566" s="22">
-        <v>1</v>
-      </c>
-      <c r="G566" s="22" t="s">
+      <c r="F566" s="5">
+        <v>0</v>
+      </c>
+      <c r="G566" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I566" s="22" t="s">
+      <c r="I566" s="5" t="s">
         <v>2115</v>
       </c>
-      <c r="J566" s="22" t="s">
+      <c r="J566" s="5" t="s">
         <v>1928</v>
       </c>
-      <c r="L566" s="22">
+      <c r="L566" s="5">
         <v>-33</v>
       </c>
-      <c r="M566" s="22">
-        <v>0</v>
-      </c>
-      <c r="N566" s="22">
-        <v>0</v>
-      </c>
-      <c r="O566" s="22" t="s">
+      <c r="M566" s="5">
+        <v>0</v>
+      </c>
+      <c r="N566" s="5">
+        <v>0</v>
+      </c>
+      <c r="O566" s="5" t="s">
         <v>2116</v>
       </c>
-      <c r="P566" s="22">
+      <c r="P566" s="5">
         <v>49800</v>
       </c>
-      <c r="Q566" s="22" t="s">
+      <c r="Q566" s="5" t="s">
         <v>2117</v>
       </c>
-      <c r="R566" s="65" t="s">
+      <c r="R566" s="64" t="s">
         <v>1924</v>
       </c>
-      <c r="W566" s="22" t="s">
+      <c r="W566" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="X566" s="22">
+      <c r="X566" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y566" s="22">
+      <c r="Y566" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z566" s="22">
+      <c r="Z566" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA566" s="22">
+      <c r="AA566" s="5">
         <v>68</v>
       </c>
-      <c r="AH566" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI566" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL566" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM566" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="567" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH566" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI566" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL566" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM566" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="567" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A567" s="5">
         <v>566</v>
       </c>
       <c r="B567" s="5">
         <v>10483</v>
       </c>
-      <c r="F567" s="22">
-        <v>1</v>
-      </c>
-      <c r="G567" s="22" t="s">
+      <c r="F567" s="5">
+        <v>0</v>
+      </c>
+      <c r="G567" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I567" s="22" t="s">
+      <c r="I567" s="5" t="s">
         <v>2115</v>
       </c>
-      <c r="J567" s="22" t="s">
+      <c r="J567" s="5" t="s">
         <v>1931</v>
       </c>
-      <c r="L567" s="22">
+      <c r="L567" s="5">
         <v>-33</v>
       </c>
-      <c r="M567" s="22">
-        <v>0</v>
-      </c>
-      <c r="N567" s="22">
-        <v>0</v>
-      </c>
-      <c r="O567" s="22" t="s">
+      <c r="M567" s="5">
+        <v>0</v>
+      </c>
+      <c r="N567" s="5">
+        <v>0</v>
+      </c>
+      <c r="O567" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P567" s="22">
+      <c r="P567" s="5">
         <v>19800</v>
       </c>
-      <c r="Q567" s="22" t="s">
+      <c r="Q567" s="5" t="s">
         <v>2117</v>
       </c>
-      <c r="R567" s="65" t="s">
+      <c r="R567" s="64" t="s">
         <v>1922</v>
       </c>
-      <c r="W567" s="22" t="s">
+      <c r="W567" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="X567" s="22">
+      <c r="X567" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y567" s="22">
+      <c r="Y567" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z567" s="22">
+      <c r="Z567" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA567" s="22">
+      <c r="AA567" s="5">
         <v>68</v>
       </c>
-      <c r="AH567" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI567" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL567" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM567" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="568" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH567" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI567" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL567" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM567" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="568" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A568" s="5">
         <v>567</v>
       </c>
       <c r="B568" s="5">
         <v>10484</v>
       </c>
-      <c r="F568" s="22">
-        <v>1</v>
-      </c>
-      <c r="G568" s="22" t="s">
+      <c r="F568" s="5">
+        <v>0</v>
+      </c>
+      <c r="G568" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I568" s="22" t="s">
+      <c r="I568" s="5" t="s">
         <v>2115</v>
       </c>
-      <c r="J568" s="22" t="s">
+      <c r="J568" s="5" t="s">
         <v>2118</v>
       </c>
-      <c r="L568" s="22">
+      <c r="L568" s="5">
         <v>-33</v>
       </c>
-      <c r="M568" s="22">
-        <v>0</v>
-      </c>
-      <c r="N568" s="22">
-        <v>0</v>
-      </c>
-      <c r="O568" s="22" t="s">
+      <c r="M568" s="5">
+        <v>0</v>
+      </c>
+      <c r="N568" s="5">
+        <v>0</v>
+      </c>
+      <c r="O568" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P568" s="22">
+      <c r="P568" s="5">
         <v>9800</v>
       </c>
-      <c r="Q568" s="22" t="s">
+      <c r="Q568" s="5" t="s">
         <v>2119</v>
       </c>
-      <c r="R568" s="65" t="s">
+      <c r="R568" s="64" t="s">
         <v>1920</v>
       </c>
-      <c r="W568" s="22" t="s">
+      <c r="W568" s="5" t="s">
         <v>2120</v>
       </c>
-      <c r="X568" s="22">
+      <c r="X568" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y568" s="22">
+      <c r="Y568" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z568" s="22">
+      <c r="Z568" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA568" s="22">
+      <c r="AA568" s="5">
         <v>68</v>
       </c>
-      <c r="AH568" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI568" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL568" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM568" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="569" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH568" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI568" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL568" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM568" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="569" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A569" s="5">
         <v>568</v>
       </c>
       <c r="B569" s="5">
         <v>10485</v>
       </c>
-      <c r="F569" s="22">
-        <v>1</v>
-      </c>
-      <c r="G569" s="22" t="s">
+      <c r="F569" s="5">
+        <v>0</v>
+      </c>
+      <c r="G569" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I569" s="22" t="s">
+      <c r="I569" s="5" t="s">
         <v>2115</v>
       </c>
-      <c r="J569" s="22" t="s">
+      <c r="J569" s="5" t="s">
         <v>1919</v>
       </c>
-      <c r="L569" s="22">
+      <c r="L569" s="5">
         <v>-33</v>
       </c>
-      <c r="M569" s="22">
-        <v>0</v>
-      </c>
-      <c r="N569" s="22">
-        <v>0</v>
-      </c>
-      <c r="O569" s="22" t="s">
+      <c r="M569" s="5">
+        <v>0</v>
+      </c>
+      <c r="N569" s="5">
+        <v>0</v>
+      </c>
+      <c r="O569" s="5" t="s">
         <v>2116</v>
       </c>
-      <c r="P569" s="22">
+      <c r="P569" s="5">
         <v>4800</v>
       </c>
-      <c r="Q569" s="22" t="s">
+      <c r="Q569" s="5" t="s">
         <v>2121</v>
       </c>
-      <c r="R569" s="65" t="s">
+      <c r="R569" s="64" t="s">
         <v>1917</v>
       </c>
-      <c r="W569" s="22" t="s">
+      <c r="W569" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="X569" s="22">
+      <c r="X569" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y569" s="22">
+      <c r="Y569" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z569" s="22">
+      <c r="Z569" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA569" s="22">
+      <c r="AA569" s="5">
         <v>68</v>
       </c>
-      <c r="AH569" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI569" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL569" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM569" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="570" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH569" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI569" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL569" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM569" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A570" s="5">
         <v>569</v>
       </c>
       <c r="B570" s="5">
         <v>10486</v>
       </c>
-      <c r="F570" s="22">
-        <v>1</v>
-      </c>
-      <c r="G570" s="22" t="s">
+      <c r="F570" s="5">
+        <v>0</v>
+      </c>
+      <c r="G570" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I570" s="22" t="s">
+      <c r="I570" s="5" t="s">
         <v>2122</v>
       </c>
-      <c r="J570" s="22" t="s">
+      <c r="J570" s="5" t="s">
         <v>1939</v>
       </c>
-      <c r="L570" s="22">
+      <c r="L570" s="5">
         <v>-33</v>
       </c>
-      <c r="M570" s="22">
-        <v>0</v>
-      </c>
-      <c r="N570" s="22">
-        <v>0</v>
-      </c>
-      <c r="O570" s="22" t="s">
+      <c r="M570" s="5">
+        <v>0</v>
+      </c>
+      <c r="N570" s="5">
+        <v>0</v>
+      </c>
+      <c r="O570" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P570" s="22">
+      <c r="P570" s="5">
         <v>49800</v>
       </c>
-      <c r="Q570" s="22" t="s">
+      <c r="Q570" s="5" t="s">
         <v>2123</v>
       </c>
-      <c r="R570" s="65" t="s">
+      <c r="R570" s="64" t="s">
         <v>2124</v>
       </c>
-      <c r="W570" s="22" t="s">
+      <c r="W570" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="X570" s="22">
+      <c r="X570" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y570" s="22">
+      <c r="Y570" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z570" s="22">
+      <c r="Z570" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA570" s="22">
+      <c r="AA570" s="5">
         <v>69</v>
       </c>
-      <c r="AH570" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI570" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL570" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM570" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="571" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH570" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI570" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL570" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM570" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A571" s="5">
         <v>570</v>
       </c>
       <c r="B571" s="5">
         <v>10487</v>
       </c>
-      <c r="F571" s="22">
-        <v>1</v>
-      </c>
-      <c r="G571" s="22" t="s">
+      <c r="F571" s="5">
+        <v>0</v>
+      </c>
+      <c r="G571" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I571" s="22" t="s">
+      <c r="I571" s="5" t="s">
         <v>2122</v>
       </c>
-      <c r="J571" s="22" t="s">
+      <c r="J571" s="5" t="s">
         <v>1916</v>
       </c>
-      <c r="L571" s="22">
+      <c r="L571" s="5">
         <v>-33</v>
       </c>
-      <c r="M571" s="22">
-        <v>0</v>
-      </c>
-      <c r="N571" s="22">
-        <v>0</v>
-      </c>
-      <c r="O571" s="22" t="s">
+      <c r="M571" s="5">
+        <v>0</v>
+      </c>
+      <c r="N571" s="5">
+        <v>0</v>
+      </c>
+      <c r="O571" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P571" s="22">
+      <c r="P571" s="5">
         <v>19800</v>
       </c>
-      <c r="Q571" s="22" t="s">
+      <c r="Q571" s="5" t="s">
         <v>2123</v>
       </c>
-      <c r="R571" s="65" t="s">
+      <c r="R571" s="64" t="s">
         <v>2125</v>
       </c>
-      <c r="W571" s="22" t="s">
+      <c r="W571" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="X571" s="22">
+      <c r="X571" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y571" s="22">
+      <c r="Y571" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z571" s="22">
+      <c r="Z571" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA571" s="22">
+      <c r="AA571" s="5">
         <v>69</v>
       </c>
-      <c r="AH571" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI571" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL571" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM571" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="572" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH571" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI571" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL571" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM571" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="572" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A572" s="5">
         <v>571</v>
       </c>
       <c r="B572" s="5">
         <v>10488</v>
       </c>
-      <c r="F572" s="22">
-        <v>1</v>
-      </c>
-      <c r="G572" s="22" t="s">
+      <c r="F572" s="5">
+        <v>0</v>
+      </c>
+      <c r="G572" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I572" s="22" t="s">
+      <c r="I572" s="5" t="s">
         <v>2122</v>
       </c>
-      <c r="J572" s="22" t="s">
+      <c r="J572" s="5" t="s">
         <v>1945</v>
       </c>
-      <c r="L572" s="22">
+      <c r="L572" s="5">
         <v>-33</v>
       </c>
-      <c r="M572" s="22">
-        <v>0</v>
-      </c>
-      <c r="N572" s="22">
-        <v>0</v>
-      </c>
-      <c r="O572" s="22" t="s">
+      <c r="M572" s="5">
+        <v>0</v>
+      </c>
+      <c r="N572" s="5">
+        <v>0</v>
+      </c>
+      <c r="O572" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P572" s="22">
+      <c r="P572" s="5">
         <v>9800</v>
       </c>
-      <c r="Q572" s="22" t="s">
+      <c r="Q572" s="5" t="s">
         <v>2126</v>
       </c>
-      <c r="R572" s="65" t="s">
+      <c r="R572" s="64" t="s">
         <v>1946</v>
       </c>
-      <c r="W572" s="22" t="s">
+      <c r="W572" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="X572" s="22">
+      <c r="X572" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y572" s="22">
+      <c r="Y572" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z572" s="22">
+      <c r="Z572" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA572" s="22">
+      <c r="AA572" s="5">
         <v>69</v>
       </c>
-      <c r="AH572" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI572" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL572" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM572" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="573" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AH572" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI572" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL572" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM572" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="573" spans="1:39" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A573" s="5">
         <v>572</v>
       </c>
       <c r="B573" s="5">
         <v>10489</v>
       </c>
-      <c r="F573" s="22">
-        <v>1</v>
-      </c>
-      <c r="G573" s="22" t="s">
+      <c r="F573" s="5">
+        <v>0</v>
+      </c>
+      <c r="G573" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="I573" s="22" t="s">
+      <c r="I573" s="5" t="s">
         <v>2122</v>
       </c>
-      <c r="J573" s="22" t="s">
+      <c r="J573" s="5" t="s">
         <v>1948</v>
       </c>
-      <c r="L573" s="22">
+      <c r="L573" s="5">
         <v>-33</v>
       </c>
-      <c r="M573" s="22">
-        <v>0</v>
-      </c>
-      <c r="N573" s="22">
-        <v>0</v>
-      </c>
-      <c r="O573" s="22" t="s">
+      <c r="M573" s="5">
+        <v>0</v>
+      </c>
+      <c r="N573" s="5">
+        <v>0</v>
+      </c>
+      <c r="O573" s="5" t="s">
         <v>2116</v>
       </c>
-      <c r="P573" s="22">
+      <c r="P573" s="5">
         <v>4800</v>
       </c>
-      <c r="Q573" s="22" t="s">
+      <c r="Q573" s="5" t="s">
         <v>2127</v>
       </c>
-      <c r="R573" s="65" t="s">
+      <c r="R573" s="64" t="s">
         <v>2128</v>
       </c>
-      <c r="W573" s="22" t="s">
+      <c r="W573" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="X573" s="22">
+      <c r="X573" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y573" s="22">
+      <c r="Y573" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z573" s="22">
+      <c r="Z573" s="5">
         <v>1615219199</v>
       </c>
-      <c r="AA573" s="22">
+      <c r="AA573" s="5">
         <v>69</v>
       </c>
-      <c r="AH573" s="22">
-        <v>1</v>
-      </c>
-      <c r="AI573" s="22">
-        <v>1</v>
-      </c>
-      <c r="AL573" s="22">
-        <v>1</v>
-      </c>
-      <c r="AM573" s="22">
+      <c r="AH573" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI573" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL573" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM573" s="5">
         <v>1</v>
       </c>
     </row>
@@ -48854,59 +48941,49 @@
       <c r="A574" s="5">
         <v>573</v>
       </c>
-      <c r="B574" s="22">
+      <c r="B574" s="5">
         <v>10490</v>
       </c>
-      <c r="C574" s="22"/>
-      <c r="D574" s="22"/>
-      <c r="E574" s="22"/>
-      <c r="F574" s="22">
-        <v>1</v>
-      </c>
-      <c r="G574" s="22" t="s">
+      <c r="F574" s="5">
+        <v>1</v>
+      </c>
+      <c r="G574" s="5" t="s">
         <v>2129</v>
       </c>
-      <c r="H574" s="22"/>
-      <c r="I574" s="22" t="s">
+      <c r="I574" s="5" t="s">
         <v>2130</v>
       </c>
-      <c r="J574" s="22"/>
-      <c r="K574" s="22"/>
-      <c r="L574" s="22">
+      <c r="L574" s="5">
         <v>-31</v>
       </c>
-      <c r="M574" s="22">
-        <v>0</v>
-      </c>
-      <c r="N574" s="22">
-        <v>0</v>
-      </c>
-      <c r="O574" s="22" t="s">
+      <c r="M574" s="5">
+        <v>0</v>
+      </c>
+      <c r="N574" s="5">
+        <v>0</v>
+      </c>
+      <c r="O574" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P574" s="22">
+      <c r="P574" s="5">
         <v>4500</v>
       </c>
-      <c r="Q574" s="22" t="s">
+      <c r="Q574" s="5" t="s">
         <v>2131</v>
       </c>
-      <c r="R574" s="66" t="s">
+      <c r="R574" s="68" t="s">
         <v>2132</v>
       </c>
-      <c r="S574" s="22"/>
-      <c r="T574" s="22"/>
-      <c r="U574" s="22"/>
-      <c r="V574" s="22"/>
-      <c r="W574" s="22" t="s">
+      <c r="W574" s="5" t="s">
         <v>2133</v>
       </c>
-      <c r="X574" s="22">
+      <c r="X574" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y574" s="22">
+      <c r="Y574" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z574" s="22">
+      <c r="Z574" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH574" s="5">
@@ -48926,59 +49003,49 @@
       <c r="A575" s="5">
         <v>574</v>
       </c>
-      <c r="B575" s="22">
+      <c r="B575" s="5">
         <v>10491</v>
       </c>
-      <c r="C575" s="22"/>
-      <c r="D575" s="22"/>
-      <c r="E575" s="22"/>
-      <c r="F575" s="22">
-        <v>1</v>
-      </c>
-      <c r="G575" s="22" t="s">
+      <c r="F575" s="5">
+        <v>1</v>
+      </c>
+      <c r="G575" s="5" t="s">
         <v>2134</v>
       </c>
-      <c r="H575" s="22"/>
-      <c r="I575" s="22" t="s">
+      <c r="I575" s="5" t="s">
         <v>2135</v>
       </c>
-      <c r="J575" s="22"/>
-      <c r="K575" s="22"/>
-      <c r="L575" s="22">
+      <c r="L575" s="5">
         <v>-31</v>
       </c>
-      <c r="M575" s="22">
-        <v>0</v>
-      </c>
-      <c r="N575" s="22">
-        <v>0</v>
-      </c>
-      <c r="O575" s="22" t="s">
+      <c r="M575" s="5">
+        <v>0</v>
+      </c>
+      <c r="N575" s="5">
+        <v>0</v>
+      </c>
+      <c r="O575" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P575" s="22">
+      <c r="P575" s="5">
         <v>8800</v>
       </c>
-      <c r="Q575" s="22" t="s">
+      <c r="Q575" s="5" t="s">
         <v>2136</v>
       </c>
-      <c r="R575" s="66" t="s">
+      <c r="R575" s="68" t="s">
         <v>2137</v>
       </c>
-      <c r="S575" s="22"/>
-      <c r="T575" s="22"/>
-      <c r="U575" s="22"/>
-      <c r="V575" s="22"/>
-      <c r="W575" s="22" t="s">
+      <c r="W575" s="5" t="s">
         <v>2138</v>
       </c>
-      <c r="X575" s="22">
+      <c r="X575" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y575" s="22">
+      <c r="Y575" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z575" s="22">
+      <c r="Z575" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH575" s="5">
@@ -48998,59 +49065,49 @@
       <c r="A576" s="5">
         <v>575</v>
       </c>
-      <c r="B576" s="22">
+      <c r="B576" s="5">
         <v>10492</v>
       </c>
-      <c r="C576" s="22"/>
-      <c r="D576" s="22"/>
-      <c r="E576" s="22"/>
-      <c r="F576" s="22">
-        <v>1</v>
-      </c>
-      <c r="G576" s="22" t="s">
+      <c r="F576" s="5">
+        <v>1</v>
+      </c>
+      <c r="G576" s="5" t="s">
         <v>2139</v>
       </c>
-      <c r="H576" s="22"/>
-      <c r="I576" s="22" t="s">
+      <c r="I576" s="5" t="s">
         <v>2140</v>
       </c>
-      <c r="J576" s="22"/>
-      <c r="K576" s="22"/>
-      <c r="L576" s="22">
+      <c r="L576" s="5">
         <v>-31</v>
       </c>
-      <c r="M576" s="22">
-        <v>0</v>
-      </c>
-      <c r="N576" s="22">
-        <v>0</v>
-      </c>
-      <c r="O576" s="22" t="s">
+      <c r="M576" s="5">
+        <v>0</v>
+      </c>
+      <c r="N576" s="5">
+        <v>0</v>
+      </c>
+      <c r="O576" s="5" t="s">
         <v>2141</v>
       </c>
-      <c r="P576" s="22">
+      <c r="P576" s="5">
         <v>17800</v>
       </c>
-      <c r="Q576" s="22" t="s">
+      <c r="Q576" s="5" t="s">
         <v>2142</v>
       </c>
-      <c r="R576" s="66" t="s">
+      <c r="R576" s="68" t="s">
         <v>2143</v>
       </c>
-      <c r="S576" s="22"/>
-      <c r="T576" s="22"/>
-      <c r="U576" s="22"/>
-      <c r="V576" s="22"/>
-      <c r="W576" s="22" t="s">
+      <c r="W576" s="5" t="s">
         <v>2138</v>
       </c>
-      <c r="X576" s="22">
+      <c r="X576" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y576" s="22">
+      <c r="Y576" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z576" s="22">
+      <c r="Z576" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH576" s="5">
@@ -49070,59 +49127,49 @@
       <c r="A577" s="5">
         <v>576</v>
       </c>
-      <c r="B577" s="22">
+      <c r="B577" s="5">
         <v>10493</v>
       </c>
-      <c r="C577" s="22"/>
-      <c r="D577" s="22"/>
-      <c r="E577" s="22"/>
-      <c r="F577" s="22">
-        <v>1</v>
-      </c>
-      <c r="G577" s="22" t="s">
+      <c r="F577" s="5">
+        <v>1</v>
+      </c>
+      <c r="G577" s="5" t="s">
         <v>2144</v>
       </c>
-      <c r="H577" s="22"/>
-      <c r="I577" s="22" t="s">
+      <c r="I577" s="5" t="s">
         <v>2145</v>
       </c>
-      <c r="J577" s="22"/>
-      <c r="K577" s="22"/>
-      <c r="L577" s="22">
+      <c r="L577" s="5">
         <v>-31</v>
       </c>
-      <c r="M577" s="22">
-        <v>0</v>
-      </c>
-      <c r="N577" s="22">
-        <v>0</v>
-      </c>
-      <c r="O577" s="22" t="s">
+      <c r="M577" s="5">
+        <v>0</v>
+      </c>
+      <c r="N577" s="5">
+        <v>0</v>
+      </c>
+      <c r="O577" s="5" t="s">
         <v>2141</v>
       </c>
-      <c r="P577" s="22">
+      <c r="P577" s="5">
         <v>44800</v>
       </c>
-      <c r="Q577" s="22" t="s">
+      <c r="Q577" s="5" t="s">
         <v>2146</v>
       </c>
-      <c r="R577" s="66" t="s">
+      <c r="R577" s="68" t="s">
         <v>2147</v>
       </c>
-      <c r="S577" s="22"/>
-      <c r="T577" s="22"/>
-      <c r="U577" s="22"/>
-      <c r="V577" s="22"/>
-      <c r="W577" s="22" t="s">
+      <c r="W577" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="X577" s="22">
+      <c r="X577" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y577" s="22">
+      <c r="Y577" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z577" s="22">
+      <c r="Z577" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH577" s="5">
@@ -49142,59 +49189,49 @@
       <c r="A578" s="5">
         <v>577</v>
       </c>
-      <c r="B578" s="22">
+      <c r="B578" s="5">
         <v>10494</v>
       </c>
-      <c r="C578" s="22"/>
-      <c r="D578" s="22"/>
-      <c r="E578" s="22"/>
-      <c r="F578" s="22">
-        <v>1</v>
-      </c>
-      <c r="G578" s="22" t="s">
+      <c r="F578" s="5">
+        <v>1</v>
+      </c>
+      <c r="G578" s="5" t="s">
         <v>2148</v>
       </c>
-      <c r="H578" s="22"/>
-      <c r="I578" s="22" t="s">
+      <c r="I578" s="5" t="s">
         <v>2149</v>
       </c>
-      <c r="J578" s="22"/>
-      <c r="K578" s="22"/>
-      <c r="L578" s="22">
+      <c r="L578" s="5">
         <v>-31</v>
       </c>
-      <c r="M578" s="22">
-        <v>0</v>
-      </c>
-      <c r="N578" s="22">
-        <v>0</v>
-      </c>
-      <c r="O578" s="22" t="s">
+      <c r="M578" s="5">
+        <v>0</v>
+      </c>
+      <c r="N578" s="5">
+        <v>0</v>
+      </c>
+      <c r="O578" s="5" t="s">
         <v>2141</v>
       </c>
-      <c r="P578" s="22">
+      <c r="P578" s="5">
         <v>89800</v>
       </c>
-      <c r="Q578" s="22" t="s">
+      <c r="Q578" s="5" t="s">
         <v>2150</v>
       </c>
-      <c r="R578" s="66" t="s">
+      <c r="R578" s="68" t="s">
         <v>2151</v>
       </c>
-      <c r="S578" s="22"/>
-      <c r="T578" s="22"/>
-      <c r="U578" s="22"/>
-      <c r="V578" s="22"/>
-      <c r="W578" s="22" t="s">
+      <c r="W578" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="X578" s="22">
+      <c r="X578" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y578" s="22">
+      <c r="Y578" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z578" s="22">
+      <c r="Z578" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH578" s="5">
@@ -49214,59 +49251,49 @@
       <c r="A579" s="5">
         <v>578</v>
       </c>
-      <c r="B579" s="22">
+      <c r="B579" s="5">
         <v>10495</v>
       </c>
-      <c r="C579" s="22"/>
-      <c r="D579" s="22"/>
-      <c r="E579" s="22"/>
-      <c r="F579" s="22">
-        <v>1</v>
-      </c>
-      <c r="G579" s="22" t="s">
+      <c r="F579" s="5">
+        <v>1</v>
+      </c>
+      <c r="G579" s="5" t="s">
         <v>2152</v>
       </c>
-      <c r="H579" s="22"/>
-      <c r="I579" s="22" t="s">
+      <c r="I579" s="5" t="s">
         <v>2153</v>
       </c>
-      <c r="J579" s="22"/>
-      <c r="K579" s="22"/>
-      <c r="L579" s="22">
+      <c r="L579" s="5">
         <v>-31</v>
       </c>
-      <c r="M579" s="22">
-        <v>0</v>
-      </c>
-      <c r="N579" s="22">
-        <v>0</v>
-      </c>
-      <c r="O579" s="22" t="s">
+      <c r="M579" s="5">
+        <v>0</v>
+      </c>
+      <c r="N579" s="5">
+        <v>0</v>
+      </c>
+      <c r="O579" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="P579" s="22">
+      <c r="P579" s="5">
         <v>229800</v>
       </c>
-      <c r="Q579" s="22" t="s">
+      <c r="Q579" s="5" t="s">
         <v>2154</v>
       </c>
-      <c r="R579" s="66" t="s">
+      <c r="R579" s="68" t="s">
         <v>2155</v>
       </c>
-      <c r="S579" s="22"/>
-      <c r="T579" s="22"/>
-      <c r="U579" s="22"/>
-      <c r="V579" s="22"/>
-      <c r="W579" s="22" t="s">
+      <c r="W579" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="X579" s="22">
+      <c r="X579" s="5">
         <v>99999999</v>
       </c>
-      <c r="Y579" s="22">
+      <c r="Y579" s="5">
         <v>1614643200</v>
       </c>
-      <c r="Z579" s="22">
+      <c r="Z579" s="5">
         <v>2552233600</v>
       </c>
       <c r="AH579" s="5">
@@ -49319,7 +49346,7 @@
       <c r="Q580" s="5" t="s">
         <v>2163</v>
       </c>
-      <c r="R580" s="68" t="s">
+      <c r="R580" s="66" t="s">
         <v>2164</v>
       </c>
       <c r="W580" s="6" t="s">
@@ -49338,6 +49365,396 @@
         <v>1</v>
       </c>
       <c r="AI580" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A581" s="22">
+        <v>580</v>
+      </c>
+      <c r="B581" s="22">
+        <v>10497</v>
+      </c>
+      <c r="F581" s="22">
+        <v>1</v>
+      </c>
+      <c r="G581" s="22" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I581" s="22" t="s">
+        <v>2167</v>
+      </c>
+      <c r="J581" s="22" t="s">
+        <v>2168</v>
+      </c>
+      <c r="L581" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M581" s="22">
+        <v>0</v>
+      </c>
+      <c r="N581" s="22">
+        <v>0</v>
+      </c>
+      <c r="O581" s="22" t="s">
+        <v>2169</v>
+      </c>
+      <c r="P581" s="22">
+        <v>49800</v>
+      </c>
+      <c r="Q581" s="22" t="s">
+        <v>2170</v>
+      </c>
+      <c r="R581" s="67" t="s">
+        <v>2171</v>
+      </c>
+      <c r="W581" s="22" t="s">
+        <v>2172</v>
+      </c>
+      <c r="X581" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y581" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z581" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH581" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI581" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL581" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM581" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="582" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A582" s="22">
+        <v>581</v>
+      </c>
+      <c r="B582" s="22">
+        <v>10498</v>
+      </c>
+      <c r="F582" s="22">
+        <v>1</v>
+      </c>
+      <c r="G582" s="22" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I582" s="22" t="s">
+        <v>2173</v>
+      </c>
+      <c r="J582" s="22" t="s">
+        <v>2174</v>
+      </c>
+      <c r="L582" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M582" s="22">
+        <v>0</v>
+      </c>
+      <c r="N582" s="22">
+        <v>0</v>
+      </c>
+      <c r="O582" s="22" t="s">
+        <v>2169</v>
+      </c>
+      <c r="P582" s="22">
+        <v>19800</v>
+      </c>
+      <c r="Q582" s="22" t="s">
+        <v>2170</v>
+      </c>
+      <c r="R582" s="67" t="s">
+        <v>2175</v>
+      </c>
+      <c r="W582" s="22" t="s">
+        <v>2172</v>
+      </c>
+      <c r="X582" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y582" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z582" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH582" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI582" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL582" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM582" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="583" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A583" s="22">
+        <v>582</v>
+      </c>
+      <c r="B583" s="22">
+        <v>10499</v>
+      </c>
+      <c r="F583" s="22">
+        <v>1</v>
+      </c>
+      <c r="G583" s="22" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I583" s="22" t="s">
+        <v>2176</v>
+      </c>
+      <c r="J583" s="22" t="s">
+        <v>2177</v>
+      </c>
+      <c r="L583" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M583" s="22">
+        <v>0</v>
+      </c>
+      <c r="N583" s="22">
+        <v>0</v>
+      </c>
+      <c r="O583" s="22" t="s">
+        <v>2169</v>
+      </c>
+      <c r="P583" s="22">
+        <v>9800</v>
+      </c>
+      <c r="Q583" s="22" t="s">
+        <v>2170</v>
+      </c>
+      <c r="R583" s="67" t="s">
+        <v>2178</v>
+      </c>
+      <c r="W583" s="22" t="s">
+        <v>2172</v>
+      </c>
+      <c r="X583" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y583" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z583" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH583" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI583" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL583" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM583" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A584" s="22">
+        <v>583</v>
+      </c>
+      <c r="B584" s="22">
+        <v>10500</v>
+      </c>
+      <c r="F584" s="22">
+        <v>1</v>
+      </c>
+      <c r="G584" s="22" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I584" s="22" t="s">
+        <v>2179</v>
+      </c>
+      <c r="J584" s="22" t="s">
+        <v>2180</v>
+      </c>
+      <c r="L584" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M584" s="22">
+        <v>0</v>
+      </c>
+      <c r="N584" s="22">
+        <v>0</v>
+      </c>
+      <c r="O584" s="22" t="s">
+        <v>2169</v>
+      </c>
+      <c r="P584" s="22">
+        <v>4800</v>
+      </c>
+      <c r="Q584" s="22" t="s">
+        <v>2170</v>
+      </c>
+      <c r="R584" s="67" t="s">
+        <v>2181</v>
+      </c>
+      <c r="W584" s="22" t="s">
+        <v>2172</v>
+      </c>
+      <c r="X584" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y584" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z584" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH584" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI584" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL584" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM584" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="585" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A585" s="22">
+        <v>584</v>
+      </c>
+      <c r="B585" s="22">
+        <v>10501</v>
+      </c>
+      <c r="F585" s="22">
+        <v>1</v>
+      </c>
+      <c r="G585" s="22" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I585" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="J585" s="22" t="s">
+        <v>2183</v>
+      </c>
+      <c r="L585" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M585" s="22">
+        <v>0</v>
+      </c>
+      <c r="N585" s="22">
+        <v>0</v>
+      </c>
+      <c r="O585" s="22" t="s">
+        <v>2169</v>
+      </c>
+      <c r="P585" s="22">
+        <v>2000</v>
+      </c>
+      <c r="Q585" s="22" t="s">
+        <v>2170</v>
+      </c>
+      <c r="R585" s="67" t="s">
+        <v>2184</v>
+      </c>
+      <c r="W585" s="22" t="s">
+        <v>2172</v>
+      </c>
+      <c r="X585" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y585" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z585" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH585" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI585" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL585" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM585" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="586" spans="1:39" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A586" s="22">
+        <v>585</v>
+      </c>
+      <c r="B586" s="22">
+        <v>10502</v>
+      </c>
+      <c r="F586" s="22">
+        <v>1</v>
+      </c>
+      <c r="G586" s="22" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I586" s="22" t="s">
+        <v>2185</v>
+      </c>
+      <c r="J586" s="22" t="s">
+        <v>2186</v>
+      </c>
+      <c r="L586" s="22">
+        <v>-31</v>
+      </c>
+      <c r="M586" s="22">
+        <v>0</v>
+      </c>
+      <c r="N586" s="22">
+        <v>0</v>
+      </c>
+      <c r="O586" s="22" t="s">
+        <v>2169</v>
+      </c>
+      <c r="P586" s="22">
+        <v>600</v>
+      </c>
+      <c r="Q586" s="22" t="s">
+        <v>2170</v>
+      </c>
+      <c r="R586" s="67" t="s">
+        <v>2187</v>
+      </c>
+      <c r="W586" s="22" t="s">
+        <v>2172</v>
+      </c>
+      <c r="X586" s="22">
+        <v>99999999</v>
+      </c>
+      <c r="Y586" s="22">
+        <v>1615852800</v>
+      </c>
+      <c r="Z586" s="22">
+        <v>1616428799</v>
+      </c>
+      <c r="AH586" s="22">
+        <v>1</v>
+      </c>
+      <c r="AI586" s="22">
+        <v>1</v>
+      </c>
+      <c r="AL586" s="22">
+        <v>1</v>
+      </c>
+      <c r="AM586" s="22">
         <v>1</v>
       </c>
     </row>

--- a/config_3.16/shoping_config_vivo.xlsx
+++ b/config_3.16/shoping_config_vivo.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4718" uniqueCount="2188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4718" uniqueCount="2189">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -9182,14 +9182,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"jing_bi","prop_qdlb_cjq","prop_fish_drop_act_0",</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>50800000,50,800</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>5,100,0</t>
   </si>
   <si>
@@ -9201,10 +9193,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>20000000,30,300</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>桃花礼包98元</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -9213,10 +9201,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>9900000,15,150</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>桃花礼包48元</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -9225,10 +9209,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>4850000,8,80</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>桃花礼包20元</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -9237,10 +9217,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>2000000,4,30</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>桃花礼包6元</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -9249,7 +9225,35 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>600000,1,20</t>
+    <t>"jing_bi","prop_qdlb_cjq","prop_fish_drop_act_0","_common_rank_cnhk_009_thphb_rank",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi","prop_qdlb_cjq","prop_fish_drop_act_0","_common_rank_cnhk_009_thphb_rank",</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50800000,50,800,800</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000000,30,300,300</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>9900000,15,150,150</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>4850000,8,80,80</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000000,4,30,30</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>600000,1,20,20</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -12133,10 +12137,10 @@
   <dimension ref="A1:AN586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H554" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="N554" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H560" sqref="H560"/>
+      <selection pane="bottomRight" activeCell="Q582" sqref="Q582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -49403,13 +49407,13 @@
         <v>49800</v>
       </c>
       <c r="Q581" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="R581" s="67" t="s">
+        <v>2183</v>
+      </c>
+      <c r="W581" s="22" t="s">
         <v>2170</v>
-      </c>
-      <c r="R581" s="67" t="s">
-        <v>2171</v>
-      </c>
-      <c r="W581" s="22" t="s">
-        <v>2172</v>
       </c>
       <c r="X581" s="22">
         <v>99999999</v>
@@ -49447,10 +49451,10 @@
         <v>2166</v>
       </c>
       <c r="I582" s="22" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="J582" s="22" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="L582" s="22">
         <v>-31</v>
@@ -49468,13 +49472,13 @@
         <v>19800</v>
       </c>
       <c r="Q582" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="R582" s="67" t="s">
+        <v>2184</v>
+      </c>
+      <c r="W582" s="22" t="s">
         <v>2170</v>
-      </c>
-      <c r="R582" s="67" t="s">
-        <v>2175</v>
-      </c>
-      <c r="W582" s="22" t="s">
-        <v>2172</v>
       </c>
       <c r="X582" s="22">
         <v>99999999</v>
@@ -49512,10 +49516,10 @@
         <v>2166</v>
       </c>
       <c r="I583" s="22" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
       <c r="J583" s="22" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
       <c r="L583" s="22">
         <v>-31</v>
@@ -49533,13 +49537,13 @@
         <v>9800</v>
       </c>
       <c r="Q583" s="22" t="s">
+        <v>2181</v>
+      </c>
+      <c r="R583" s="67" t="s">
+        <v>2185</v>
+      </c>
+      <c r="W583" s="22" t="s">
         <v>2170</v>
-      </c>
-      <c r="R583" s="67" t="s">
-        <v>2178</v>
-      </c>
-      <c r="W583" s="22" t="s">
-        <v>2172</v>
       </c>
       <c r="X583" s="22">
         <v>99999999</v>
@@ -49577,10 +49581,10 @@
         <v>2166</v>
       </c>
       <c r="I584" s="22" t="s">
-        <v>2179</v>
+        <v>2175</v>
       </c>
       <c r="J584" s="22" t="s">
-        <v>2180</v>
+        <v>2176</v>
       </c>
       <c r="L584" s="22">
         <v>-31</v>
@@ -49598,13 +49602,13 @@
         <v>4800</v>
       </c>
       <c r="Q584" s="22" t="s">
+        <v>2181</v>
+      </c>
+      <c r="R584" s="67" t="s">
+        <v>2186</v>
+      </c>
+      <c r="W584" s="22" t="s">
         <v>2170</v>
-      </c>
-      <c r="R584" s="67" t="s">
-        <v>2181</v>
-      </c>
-      <c r="W584" s="22" t="s">
-        <v>2172</v>
       </c>
       <c r="X584" s="22">
         <v>99999999</v>
@@ -49642,10 +49646,10 @@
         <v>2166</v>
       </c>
       <c r="I585" s="22" t="s">
-        <v>2182</v>
+        <v>2177</v>
       </c>
       <c r="J585" s="22" t="s">
-        <v>2183</v>
+        <v>2178</v>
       </c>
       <c r="L585" s="22">
         <v>-31</v>
@@ -49663,13 +49667,13 @@
         <v>2000</v>
       </c>
       <c r="Q585" s="22" t="s">
+        <v>2181</v>
+      </c>
+      <c r="R585" s="67" t="s">
+        <v>2187</v>
+      </c>
+      <c r="W585" s="22" t="s">
         <v>2170</v>
-      </c>
-      <c r="R585" s="67" t="s">
-        <v>2184</v>
-      </c>
-      <c r="W585" s="22" t="s">
-        <v>2172</v>
       </c>
       <c r="X585" s="22">
         <v>99999999</v>
@@ -49707,10 +49711,10 @@
         <v>2166</v>
       </c>
       <c r="I586" s="22" t="s">
-        <v>2185</v>
+        <v>2179</v>
       </c>
       <c r="J586" s="22" t="s">
-        <v>2186</v>
+        <v>2180</v>
       </c>
       <c r="L586" s="22">
         <v>-31</v>
@@ -49728,13 +49732,13 @@
         <v>600</v>
       </c>
       <c r="Q586" s="22" t="s">
+        <v>2182</v>
+      </c>
+      <c r="R586" s="67" t="s">
+        <v>2188</v>
+      </c>
+      <c r="W586" s="22" t="s">
         <v>2170</v>
-      </c>
-      <c r="R586" s="67" t="s">
-        <v>2187</v>
-      </c>
-      <c r="W586" s="22" t="s">
-        <v>2172</v>
       </c>
       <c r="X586" s="22">
         <v>99999999</v>
